--- a/Data_2019__AMP_invivo_broiler_ver1.xlsx
+++ b/Data_2019__AMP_invivo_broiler_ver1.xlsx
@@ -10,8 +10,7 @@
   <sheets>
     <sheet name="Performa" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Performa_Prediksi" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Ringkas" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Formula" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Formula" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="54">
   <si>
     <t xml:space="preserve">study</t>
   </si>
@@ -74,9 +73,6 @@
   </si>
   <si>
     <t xml:space="preserve">ROSS 308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agp</t>
   </si>
   <si>
     <t xml:space="preserve">potato protein</t>
@@ -297,15 +293,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -500,22 +505,22 @@
         <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>10</v>
+        <v>2500</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>763</v>
+        <v>690</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>34.24</v>
+        <v>30.76</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>53.14</v>
+        <v>49.29</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -532,25 +537,25 @@
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>690</v>
+        <v>747</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>30.76</v>
+        <v>33.48</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>49.29</v>
+        <v>53.29</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -567,60 +572,60 @@
         <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>33.48</v>
+        <v>33.71</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>53.29</v>
+        <v>52.81</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>33.71</v>
+        <v>33</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>52.81</v>
+        <v>53.05</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -628,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2013</v>
@@ -637,25 +642,25 @@
         <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>737</v>
+        <v>747.92</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>33</v>
+        <v>33.52</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>53.05</v>
+        <v>53.48</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2013</v>
@@ -672,33 +677,33 @@
         <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>776</v>
+        <v>765.98</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>34.86</v>
+        <v>34.38</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>54.43</v>
+        <v>54.1</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2013</v>
@@ -707,33 +712,33 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>747.92</v>
+        <v>803.99</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>33.52</v>
+        <v>36.19</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>53.48</v>
+        <v>55.95</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2013</v>
@@ -748,19 +753,19 @@
         <v>4</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>765.98</v>
+        <v>821</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>34.38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>54.1</v>
+        <v>56.52</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,7 +773,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2013</v>
@@ -777,130 +782,130 @@
         <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>803.99</v>
+        <v>836.96</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>36.19</v>
+        <v>37.76</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>55.95</v>
+        <v>56.71</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>857</v>
+        <v>774.33</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>38.71</v>
+        <v>34.91</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>56.95</v>
+        <v>48.73</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>821</v>
+        <v>818.5</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>37</v>
+        <v>37.04</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>56.52</v>
+        <v>48.78</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>836.96</v>
+        <v>813.66</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>37.76</v>
+        <v>36.75</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>56.71</v>
+        <v>48.42</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2017</v>
@@ -917,33 +922,33 @@
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>774.33</v>
+        <v>814.5</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>34.91</v>
+        <v>36.83</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>48.73</v>
+        <v>49.12</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2017</v>
@@ -952,33 +957,33 @@
         <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>818.5</v>
+        <v>1016</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>37.04</v>
+        <v>46.29</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>48.78</v>
+        <v>60.14</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2017</v>
@@ -987,33 +992,33 @@
         <v>16</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>813.66</v>
+        <v>1034</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>36.75</v>
+        <v>47.14</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>48.42</v>
+        <v>60.67</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2017</v>
@@ -1022,25 +1027,25 @@
         <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>120</v>
+        <v>2000</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>814.5</v>
+        <v>1037</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>36.83</v>
+        <v>47.29</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>49.12</v>
+        <v>60.43</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1048,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2017</v>
@@ -1057,22 +1062,22 @@
         <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>1016</v>
+        <v>1026</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>46.29</v>
+        <v>46.76</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>60.14</v>
+        <v>60.52</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>1.3</v>
@@ -1083,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2017</v>
@@ -1092,25 +1097,25 @@
         <v>16</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>1034</v>
+        <v>1011</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>47.14</v>
+        <v>46.05</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>60.67</v>
+        <v>59.1</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,7 +1123,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2017</v>
@@ -1127,25 +1132,25 @@
         <v>16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>47.29</v>
+        <v>47.48</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>60.43</v>
+        <v>59.86</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,7 +1158,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2017</v>
@@ -1162,144 +1167,144 @@
         <v>16</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>46.76</v>
+        <v>47</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>60.52</v>
+        <v>58.57</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>1011</v>
+        <v>704.95</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>46.05</v>
+        <v>31.46</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>59.1</v>
+        <v>51.38</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>1.28</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>1041</v>
+        <v>717.97</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>47.48</v>
+        <v>32.08</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>59.86</v>
+        <v>46.7</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>6000</v>
+        <v>200</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>1031</v>
+        <v>709.99</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>47</v>
+        <v>31.7</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>58.57</v>
+        <v>45.64</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>13</v>
@@ -1311,121 +1316,121 @@
         <v>0</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>704.95</v>
+        <v>874.4</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>31.46</v>
+        <v>39.67</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>51.38</v>
+        <v>58.9</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>753.88</v>
+        <v>905.4</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>33.79</v>
+        <v>41.14</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>48.7</v>
+        <v>58</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>717.97</v>
+        <v>912.4</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>32.08</v>
+        <v>41.48</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>46.7</v>
+        <v>58.33</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>709.99</v>
+        <v>925.4</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>31.7</v>
+        <v>42.1</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>45.64</v>
+        <v>58.38</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,34 +1438,34 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>874.4</v>
+        <v>943.4</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>39.67</v>
+        <v>42.95</v>
       </c>
       <c r="J33" s="1" t="n">
         <v>58.9</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,183 +1473,43 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>905.4</v>
+        <v>1013.4</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>41.14</v>
+        <v>46.29</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>58</v>
+        <v>58.62</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>912.4</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>41.48</v>
-      </c>
-      <c r="J35" s="1" t="n">
-        <v>58.33</v>
-      </c>
-      <c r="K35" s="1" t="n">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>925.4</v>
-      </c>
-      <c r="I36" s="1" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="J36" s="1" t="n">
-        <v>58.38</v>
-      </c>
-      <c r="K36" s="1" t="n">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>4000</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v>943.4</v>
-      </c>
-      <c r="I37" s="1" t="n">
-        <v>42.95</v>
-      </c>
-      <c r="J37" s="1" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="K37" s="1" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>1013.4</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>46.29</v>
-      </c>
-      <c r="J38" s="1" t="n">
-        <v>58.62</v>
-      </c>
-      <c r="K38" s="1" t="n">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1662,13 +1527,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="11.52"/>
   </cols>
@@ -1815,10 +1680,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>10</v>
+        <v>2500</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1837,13 +1702,13 @@
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1862,38 +1727,38 @@
         <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1903,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2013</v>
@@ -1912,13 +1777,13 @@
         <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1928,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2013</v>
@@ -1937,23 +1802,23 @@
         <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2013</v>
@@ -1962,23 +1827,23 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2013</v>
@@ -1993,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2003,7 +1868,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2013</v>
@@ -2012,88 +1877,88 @@
         <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2103,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2017</v>
@@ -2112,23 +1977,23 @@
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2017</v>
@@ -2137,23 +2002,23 @@
         <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2017</v>
@@ -2162,23 +2027,23 @@
         <v>16</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2017</v>
@@ -2187,13 +2052,13 @@
         <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>120</v>
+        <v>2000</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2203,7 +2068,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2017</v>
@@ -2212,13 +2077,13 @@
         <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2228,7 +2093,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2017</v>
@@ -2237,13 +2102,13 @@
         <v>16</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2253,7 +2118,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2017</v>
@@ -2262,13 +2127,13 @@
         <v>16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2278,7 +2143,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2017</v>
@@ -2287,104 +2152,104 @@
         <v>16</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>6000</v>
+        <v>200</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>13</v>
@@ -2400,75 +2265,75 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2478,22 +2343,22 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2503,133 +2368,33 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>4000</v>
-      </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2647,1053 +2412,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>700</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>28.32</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>41.23</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>843.33</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>41.11</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>868.32</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>36.48</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>41.29</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>696</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>31.05</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>50.19</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>763</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>34.24</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>53.14</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>690</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>30.76</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>49.29</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>747</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>33.48</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>53.29</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>752</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>33.71</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>52.81</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>53.05</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>776</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>34.86</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>54.43</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>747.92</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>33.52</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>53.48</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>765.98</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>34.38</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>803.99</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>36.19</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>55.95</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>857</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>38.71</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>821</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>56.52</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>836.96</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>37.76</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>56.71</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>774.33</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>48.73</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>818.5</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>37.04</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>48.78</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>813.66</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>36.75</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>48.42</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>814.5</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>36.83</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>49.12</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>1016</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>46.29</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>60.14</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>1034</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>47.14</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>60.67</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>1037</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>47.29</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>60.43</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>1026</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>46.76</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>60.52</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>1011</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>46.05</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>1041</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>47.48</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>59.86</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>1031</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>58.57</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>704.95</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <v>31.46</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>51.38</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>753.88</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>33.79</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>717.97</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>32.08</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>709.99</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>45.64</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>874.4</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>39.67</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>905.4</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>41.14</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>912.4</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>41.48</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>58.33</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>925.4</v>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>58.38</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>943.4</v>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>42.95</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>1013.4</v>
-      </c>
-      <c r="F38" s="1" t="n">
-        <v>46.29</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <v>58.62</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="103.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3701,10 +2445,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>6</v>
@@ -3715,13 +2459,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3729,13 +2473,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,13 +2487,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,13 +2501,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3771,10 +2515,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>6</v>
@@ -3788,16 +2532,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,16 +2549,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3822,16 +2566,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,16 +2583,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
